--- a/updatedResults.xlsx
+++ b/updatedResults.xlsx
@@ -47,13 +47,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,22 +432,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1 2 3, 4 5 6</t>
+          <t>2 2 5, 3 5 7, 1 5 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>T1</t>
+          <t>Unscheduable</t>
         </is>
       </c>
     </row>
@@ -460,64 +447,21 @@
           <t>RMS</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
     </row>
-    <row r="3">
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2 2 5, 3 5 7, 1 5 10</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Unscheduable</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1 2 3, 4 5 6</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Unscheduable</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>EDF</t>
         </is>

--- a/updatedResults.xlsx
+++ b/updatedResults.xlsx
@@ -27,12 +27,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,10 +53,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,20 +436,104 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2 2 5, 3 5 7, 1 5 10</t>
+          <t>2 5 5, 3 7 7</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unscheduable</t>
-        </is>
-      </c>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -447,24 +541,507 @@
           <t>RMS</t>
         </is>
       </c>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="n"/>
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="n"/>
+      <c r="AD2" s="2" t="n"/>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="n"/>
+      <c r="AI2" s="2" t="n"/>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2 2 5, 3 5 7, 1 5 10</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Unscheduable</t>
-        </is>
+    <row r="3">
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2 5 5, 3 7 7</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
+      <c r="X5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="Y5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="Z5" s="2" t="n"/>
+      <c r="AA5" s="2" t="n"/>
+      <c r="AB5" s="2" t="n"/>
+      <c r="AC5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="AD5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="n"/>
+      <c r="AG5" s="2" t="n"/>
+      <c r="AH5" s="2" t="n"/>
+      <c r="AI5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="AJ5" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>EDF</t>
         </is>
+      </c>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="V6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AA6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AC6" s="2" t="n"/>
+      <c r="AD6" s="2" t="n"/>
+      <c r="AF6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AG6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AH6" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AI6" s="2" t="n"/>
+      <c r="AJ6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
